--- a/Pipeline_2-Vulnerability/Labor/Outputs/Data/Eurostat_gdp.xlsx
+++ b/Pipeline_2-Vulnerability/Labor/Outputs/Data/Eurostat_gdp.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>405241.42</v>
+        <v>406232.06</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>9486.83</v>
+        <v>9439.309999999999</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>63973.78</v>
+        <v>63413.92</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>102720.52</v>
+        <v>103425.65</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>22173.58</v>
+        <v>22576.35</v>
       </c>
     </row>
     <row r="7">
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>51861.72</v>
+        <v>52163.84</v>
       </c>
     </row>
     <row r="8">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>70492.13</v>
+        <v>71148.91</v>
       </c>
     </row>
     <row r="9">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>29508.13</v>
+        <v>29478.79</v>
       </c>
     </row>
     <row r="10">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>34325.89</v>
+        <v>33858.93</v>
       </c>
     </row>
     <row r="11">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>20562.44</v>
+        <v>20580.7</v>
       </c>
     </row>
     <row r="12">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>507929.6</v>
+        <v>506023.2</v>
       </c>
     </row>
     <row r="13">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>90084.92999999999</v>
+        <v>90626.53999999999</v>
       </c>
     </row>
     <row r="14">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>98779</v>
+        <v>96869.86</v>
       </c>
     </row>
     <row r="15">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>31756.43</v>
+        <v>31306.17</v>
       </c>
     </row>
     <row r="16">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B16">
-        <v>63411.61</v>
+        <v>63230.35</v>
       </c>
     </row>
     <row r="17">
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>55670.79</v>
+        <v>56278.86</v>
       </c>
     </row>
     <row r="18">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>52313.89</v>
+        <v>51661.96</v>
       </c>
     </row>
     <row r="19">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="B19">
-        <v>21517.11</v>
+        <v>21453</v>
       </c>
     </row>
     <row r="20">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="B20">
-        <v>36812.74</v>
+        <v>36465.47</v>
       </c>
     </row>
     <row r="21">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="B21">
-        <v>34849.84</v>
+        <v>35277.77</v>
       </c>
     </row>
     <row r="22">
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="B22">
-        <v>7872.56</v>
+        <v>7976.1</v>
       </c>
     </row>
     <row r="23">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="B23">
-        <v>14545.99</v>
+        <v>14710.46</v>
       </c>
     </row>
     <row r="24">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B24">
-        <v>71060.14</v>
+        <v>71378.45</v>
       </c>
     </row>
     <row r="25">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B25">
-        <v>4979.02</v>
+        <v>4963.24</v>
       </c>
     </row>
     <row r="26">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="B26">
-        <v>5362.05</v>
+        <v>5356.01</v>
       </c>
     </row>
     <row r="27">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B27">
-        <v>7122.88</v>
+        <v>7140.17</v>
       </c>
     </row>
     <row r="28">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="B28">
-        <v>8210.190000000001</v>
+        <v>8200.049999999999</v>
       </c>
     </row>
     <row r="29">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="B29">
-        <v>35872.32</v>
+        <v>36212.65</v>
       </c>
     </row>
     <row r="30">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B30">
-        <v>9513.67</v>
+        <v>9506.32</v>
       </c>
     </row>
     <row r="31">
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="B31">
-        <v>24927.63</v>
+        <v>25680.08</v>
       </c>
     </row>
     <row r="32">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="B32">
-        <v>24927.63</v>
+        <v>25680.08</v>
       </c>
     </row>
     <row r="33">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B33">
-        <v>238249.49</v>
+        <v>246012.29</v>
       </c>
     </row>
     <row r="34">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="B34">
-        <v>66974.19</v>
+        <v>66697.28</v>
       </c>
     </row>
     <row r="35">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="B35">
-        <v>26542.6</v>
+        <v>29091.23</v>
       </c>
     </row>
     <row r="36">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B36">
-        <v>22925.16</v>
+        <v>23898.35</v>
       </c>
     </row>
     <row r="37">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B37">
-        <v>16506.67</v>
+        <v>17002.35</v>
       </c>
     </row>
     <row r="38">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="B38">
-        <v>27387.38</v>
+        <v>28208.12</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="B39">
-        <v>35086.13</v>
+        <v>37229.78</v>
       </c>
     </row>
     <row r="40">
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="B40">
-        <v>22046.77</v>
+        <v>22470.94</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="B41">
-        <v>20780.59</v>
+        <v>21414.23</v>
       </c>
     </row>
     <row r="42">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="B42">
-        <v>3617450</v>
+        <v>3676460</v>
       </c>
     </row>
     <row r="43">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="B43">
-        <v>226172.7</v>
+        <v>230407.81</v>
       </c>
     </row>
     <row r="44">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B44">
-        <v>132962.04</v>
+        <v>133861.68</v>
       </c>
     </row>
     <row r="45">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="B45">
-        <v>93904.27</v>
+        <v>94940.46000000001</v>
       </c>
     </row>
     <row r="46">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B46">
-        <v>88303.45</v>
+        <v>89210.17</v>
       </c>
     </row>
     <row r="47">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="B47">
-        <v>299232.87</v>
+        <v>305540.34</v>
       </c>
     </row>
     <row r="48">
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="B48">
-        <v>53504.54</v>
+        <v>53638.1</v>
       </c>
     </row>
     <row r="49">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="B49">
-        <v>51111.74</v>
+        <v>51943.2</v>
       </c>
     </row>
     <row r="50">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="B50">
-        <v>43282.91</v>
+        <v>44442.45</v>
       </c>
     </row>
     <row r="51">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="B51">
-        <v>85005</v>
+        <v>87179.78</v>
       </c>
     </row>
     <row r="52">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B52">
-        <v>56798.61</v>
+        <v>57546.97</v>
       </c>
     </row>
     <row r="53">
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="B53">
-        <v>79803.17</v>
+        <v>80326.94</v>
       </c>
     </row>
     <row r="54">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="B54">
-        <v>166036.11</v>
+        <v>169848.53</v>
       </c>
     </row>
     <row r="55">
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="B55">
-        <v>80852.00999999999</v>
+        <v>80528.89999999999</v>
       </c>
     </row>
     <row r="56">
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="B56">
-        <v>35309.13</v>
+        <v>35574.06</v>
       </c>
     </row>
     <row r="57">
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="B57">
-        <v>131604.17</v>
+        <v>137825.94</v>
       </c>
     </row>
     <row r="58">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="B58">
-        <v>219803.01</v>
+        <v>225503.25</v>
       </c>
     </row>
     <row r="59">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B59">
-        <v>39139.39</v>
+        <v>40105.9</v>
       </c>
     </row>
     <row r="60">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="B60">
-        <v>47019.2</v>
+        <v>47660.71</v>
       </c>
     </row>
     <row r="61">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="B61">
-        <v>49826.38</v>
+        <v>49970.41</v>
       </c>
     </row>
     <row r="62">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="B62">
-        <v>78079.34</v>
+        <v>76540.89999999999</v>
       </c>
     </row>
     <row r="63">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="B63">
-        <v>88294.58</v>
+        <v>90388.36</v>
       </c>
     </row>
     <row r="64">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="B64">
-        <v>52895.16</v>
+        <v>54279.94</v>
       </c>
     </row>
     <row r="65">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="B65">
-        <v>97289.14999999999</v>
+        <v>99648.11</v>
       </c>
     </row>
     <row r="66">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B66">
-        <v>230763.96</v>
+        <v>233764.66</v>
       </c>
     </row>
     <row r="67">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B67">
-        <v>202230.05</v>
+        <v>204723.25</v>
       </c>
     </row>
     <row r="68">
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="B68">
-        <v>95940.17999999999</v>
+        <v>97557.44</v>
       </c>
     </row>
     <row r="69">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="B69">
-        <v>84547.71000000001</v>
+        <v>86024.48</v>
       </c>
     </row>
     <row r="70">
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="B70">
-        <v>133884.55</v>
+        <v>136378.18</v>
       </c>
     </row>
     <row r="71">
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="B71">
-        <v>54555.14</v>
+        <v>54765.36</v>
       </c>
     </row>
     <row r="72">
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="B72">
-        <v>17182.65</v>
+        <v>17293.17</v>
       </c>
     </row>
     <row r="73">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="B73">
-        <v>90653.87</v>
+        <v>93839.94</v>
       </c>
     </row>
     <row r="74">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="B74">
-        <v>36341.03</v>
+        <v>37303.02</v>
       </c>
     </row>
     <row r="75">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="B75">
-        <v>54175.69</v>
+        <v>54415.42</v>
       </c>
     </row>
     <row r="76">
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="B76">
-        <v>43106.82</v>
+        <v>43934.07</v>
       </c>
     </row>
     <row r="77">
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="B77">
-        <v>38033.16</v>
+        <v>38256.99</v>
       </c>
     </row>
     <row r="78">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="B78">
-        <v>68270.62</v>
+        <v>68141.35000000001</v>
       </c>
     </row>
     <row r="79">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="B79">
-        <v>105138.32</v>
+        <v>106080.35</v>
       </c>
     </row>
     <row r="80">
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="B80">
-        <v>66397.28999999999</v>
+        <v>67069.41</v>
       </c>
     </row>
     <row r="81">
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="B81">
-        <v>342961.72</v>
+        <v>345235.98</v>
       </c>
     </row>
     <row r="82">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="B82">
-        <v>146827.39</v>
+        <v>146615.17</v>
       </c>
     </row>
     <row r="83">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="B83">
-        <v>33019.42</v>
+        <v>33568.05</v>
       </c>
     </row>
     <row r="84">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="B84">
-        <v>62431.26</v>
+        <v>62853.3</v>
       </c>
     </row>
     <row r="85">
@@ -1206,7 +1206,7 @@
         </is>
       </c>
       <c r="B85">
-        <v>70995.41</v>
+        <v>71705.53</v>
       </c>
     </row>
     <row r="86">
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="B86">
-        <v>27459.88</v>
+        <v>28026.21</v>
       </c>
     </row>
     <row r="87">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="B87">
-        <v>31168.97</v>
+        <v>31456.24</v>
       </c>
     </row>
     <row r="88">
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="B88">
-        <v>31168.97</v>
+        <v>31456.24</v>
       </c>
     </row>
     <row r="89">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="B89">
-        <v>181500.37</v>
+        <v>184574.58</v>
       </c>
     </row>
     <row r="90">
@@ -1256,7 +1256,7 @@
         </is>
       </c>
       <c r="B90">
-        <v>86884.03</v>
+        <v>89769.35000000001</v>
       </c>
     </row>
     <row r="91">
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="B91">
-        <v>2433.7</v>
+        <v>2447.32</v>
       </c>
     </row>
     <row r="92">
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="B92">
-        <v>5767</v>
+        <v>5694.45</v>
       </c>
     </row>
     <row r="93">
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="B93">
-        <v>8878.93</v>
+        <v>8955.65</v>
       </c>
     </row>
     <row r="94">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="B94">
-        <v>7116.67</v>
+        <v>6913.41</v>
       </c>
     </row>
     <row r="95">
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="B95">
-        <v>24916.48</v>
+        <v>25318.55</v>
       </c>
     </row>
     <row r="96">
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="B96">
-        <v>3692.48</v>
+        <v>3802.89</v>
       </c>
     </row>
     <row r="97">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="B97">
-        <v>3951.36</v>
+        <v>3764.68</v>
       </c>
     </row>
     <row r="98">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="B98">
-        <v>9470.440000000001</v>
+        <v>9808.51</v>
       </c>
     </row>
     <row r="99">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="B99">
-        <v>2927.81</v>
+        <v>2930.51</v>
       </c>
     </row>
     <row r="100">
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="B100">
-        <v>8008.58</v>
+        <v>8020.89</v>
       </c>
     </row>
     <row r="101">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="B101">
-        <v>9279.9</v>
+        <v>8827.379999999999</v>
       </c>
     </row>
     <row r="102">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="B102">
-        <v>8173</v>
+        <v>8320.99</v>
       </c>
     </row>
     <row r="103">
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="B103">
-        <v>1222290</v>
+        <v>1235474</v>
       </c>
     </row>
     <row r="104">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="B104">
-        <v>63836.11</v>
+        <v>64387.5</v>
       </c>
     </row>
     <row r="105">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="B105">
-        <v>23549.34</v>
+        <v>23617.6</v>
       </c>
     </row>
     <row r="106">
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="B106">
-        <v>14021.73</v>
+        <v>14206.5</v>
       </c>
     </row>
     <row r="107">
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="B107">
-        <v>72226.38</v>
+        <v>72513.10000000001</v>
       </c>
     </row>
     <row r="108">
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="B108">
-        <v>20518.63</v>
+        <v>20821.2</v>
       </c>
     </row>
     <row r="109">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B109">
-        <v>8620.17</v>
+        <v>8735.9</v>
       </c>
     </row>
     <row r="110">
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="B110">
-        <v>38159.09</v>
+        <v>38782.4</v>
       </c>
     </row>
     <row r="111">
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="B111">
-        <v>237540.42</v>
+        <v>239837</v>
       </c>
     </row>
     <row r="112">
@@ -1476,7 +1476,7 @@
         </is>
       </c>
       <c r="B112">
-        <v>59263.52</v>
+        <v>59465.7</v>
       </c>
     </row>
     <row r="113">
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="B113">
-        <v>42852.15</v>
+        <v>44124.1</v>
       </c>
     </row>
     <row r="114">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="B114">
-        <v>20650.16</v>
+        <v>21551.7</v>
       </c>
     </row>
     <row r="115">
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="B115">
-        <v>232057.07</v>
+        <v>234820.2</v>
       </c>
     </row>
     <row r="116">
@@ -1516,7 +1516,7 @@
         </is>
       </c>
       <c r="B116">
-        <v>114837.58</v>
+        <v>116386.8</v>
       </c>
     </row>
     <row r="117">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="B117">
-        <v>30031.66</v>
+        <v>30512.3</v>
       </c>
     </row>
     <row r="118">
@@ -1536,7 +1536,7 @@
         </is>
       </c>
       <c r="B118">
-        <v>164003.16</v>
+        <v>166296.2</v>
       </c>
     </row>
     <row r="119">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="B119">
-        <v>32718.84</v>
+        <v>33603.6</v>
       </c>
     </row>
     <row r="120">
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="B120">
-        <v>1765.15</v>
+        <v>1634.1</v>
       </c>
     </row>
     <row r="121">
@@ -1566,7 +1566,7 @@
         </is>
       </c>
       <c r="B121">
-        <v>1617.04</v>
+        <v>1534.1</v>
       </c>
     </row>
     <row r="122">
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="B122">
-        <v>42843.09</v>
+        <v>41407.6</v>
       </c>
     </row>
     <row r="123">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="B123">
-        <v>250664</v>
+        <v>248764</v>
       </c>
     </row>
     <row r="124">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="B124">
-        <v>55932.63</v>
+        <v>55334.97</v>
       </c>
     </row>
     <row r="125">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B125">
-        <v>98663.45</v>
+        <v>98460.8</v>
       </c>
     </row>
     <row r="126">
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="B126">
-        <v>46052.4</v>
+        <v>45633.53</v>
       </c>
     </row>
     <row r="127">
@@ -1626,7 +1626,7 @@
         </is>
       </c>
       <c r="B127">
-        <v>48584.57</v>
+        <v>47908.51</v>
       </c>
     </row>
     <row r="128">
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="B128">
-        <v>1343.72</v>
+        <v>1337.98</v>
       </c>
     </row>
     <row r="129">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="B129">
-        <v>2502118</v>
+        <v>2508102.3</v>
       </c>
     </row>
     <row r="130">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="B130">
-        <v>757630.11</v>
+        <v>744093.6</v>
       </c>
     </row>
     <row r="131">
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="B131">
-        <v>77772.78999999999</v>
+        <v>78509.5</v>
       </c>
     </row>
     <row r="132">
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="B132">
-        <v>49288.29</v>
+        <v>50520.6</v>
       </c>
     </row>
     <row r="133">
@@ -1686,7 +1686,7 @@
         </is>
       </c>
       <c r="B133">
-        <v>32113.42</v>
+        <v>33585</v>
       </c>
     </row>
     <row r="134">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="B134">
-        <v>42577.57</v>
+        <v>43995.7</v>
       </c>
     </row>
     <row r="135">
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="B135">
-        <v>58279.18</v>
+        <v>59117.8</v>
       </c>
     </row>
     <row r="136">
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="B136">
-        <v>122287.34</v>
+        <v>125323.8</v>
       </c>
     </row>
     <row r="137">
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="B137">
-        <v>52047.29</v>
+        <v>53434.3</v>
       </c>
     </row>
     <row r="138">
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="B138">
-        <v>64367.22</v>
+        <v>65135.7</v>
       </c>
     </row>
     <row r="139">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="B139">
-        <v>40268.98</v>
+        <v>41510.4</v>
       </c>
     </row>
     <row r="140">
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="B140">
-        <v>62361.64</v>
+        <v>61946.1</v>
       </c>
     </row>
     <row r="141">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="B141">
-        <v>126472.97</v>
+        <v>128511.7</v>
       </c>
     </row>
     <row r="142">
@@ -1776,7 +1776,7 @@
         </is>
       </c>
       <c r="B142">
-        <v>106194.89</v>
+        <v>105564</v>
       </c>
     </row>
     <row r="143">
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="B143">
-        <v>114112.12</v>
+        <v>113995.5</v>
       </c>
     </row>
     <row r="144">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="B144">
-        <v>20261.42</v>
+        <v>20820.7</v>
       </c>
     </row>
     <row r="145">
@@ -1806,7 +1806,7 @@
         </is>
       </c>
       <c r="B145">
-        <v>54678.59</v>
+        <v>55420.6</v>
       </c>
     </row>
     <row r="146">
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="B146">
-        <v>81516.86</v>
+        <v>82426.39999999999</v>
       </c>
     </row>
     <row r="147">
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="B147">
-        <v>101732.8</v>
+        <v>102902.1</v>
       </c>
     </row>
     <row r="148">
@@ -1836,7 +1836,7 @@
         </is>
       </c>
       <c r="B148">
-        <v>41119.79</v>
+        <v>40854.5</v>
       </c>
     </row>
     <row r="149">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="B149">
-        <v>247813.85</v>
+        <v>249752</v>
       </c>
     </row>
     <row r="150">
@@ -1856,7 +1856,7 @@
         </is>
       </c>
       <c r="B150">
-        <v>191454.93</v>
+        <v>191719.3</v>
       </c>
     </row>
     <row r="151">
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="B151">
-        <v>10139.36</v>
+        <v>10125.1</v>
       </c>
     </row>
     <row r="152">
@@ -1876,7 +1876,7 @@
         </is>
       </c>
       <c r="B152">
-        <v>58455.11</v>
+        <v>58394.12</v>
       </c>
     </row>
     <row r="153">
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="B153">
-        <v>10737.7</v>
+        <v>10719.97</v>
       </c>
     </row>
     <row r="154">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="B154">
-        <v>18173.55</v>
+        <v>18225.36</v>
       </c>
     </row>
     <row r="155">
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="B155">
-        <v>20041.46</v>
+        <v>19891.3</v>
       </c>
     </row>
     <row r="156">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="B156">
-        <v>9502.389999999999</v>
+        <v>9557.49</v>
       </c>
     </row>
     <row r="157">
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="B157">
-        <v>153963.31</v>
+        <v>154962.03</v>
       </c>
     </row>
     <row r="158">
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="B158">
-        <v>56663.43</v>
+        <v>57243.73</v>
       </c>
     </row>
     <row r="159">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="B159">
-        <v>17026.66</v>
+        <v>17237.85</v>
       </c>
     </row>
     <row r="160">
@@ -1956,7 +1956,7 @@
         </is>
       </c>
       <c r="B160">
-        <v>15674.68</v>
+        <v>15736.76</v>
       </c>
     </row>
     <row r="161">
@@ -1966,7 +1966,7 @@
         </is>
       </c>
       <c r="B161">
-        <v>14229.9</v>
+        <v>14327.53</v>
       </c>
     </row>
     <row r="162">
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="B162">
-        <v>9380.530000000001</v>
+        <v>9403.35</v>
       </c>
     </row>
     <row r="163">
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="B163">
-        <v>12111.28</v>
+        <v>12096.28</v>
       </c>
     </row>
     <row r="164">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="B164">
-        <v>14805.49</v>
+        <v>14802.94</v>
       </c>
     </row>
     <row r="165">
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="B165">
-        <v>14071.35</v>
+        <v>14113.59</v>
       </c>
     </row>
     <row r="166">
@@ -2016,7 +2016,7 @@
         </is>
       </c>
       <c r="B166">
-        <v>434069.74</v>
+        <v>449216.55</v>
       </c>
     </row>
     <row r="167">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="B167">
-        <v>32651.53</v>
+        <v>34538.48</v>
       </c>
     </row>
     <row r="168">
@@ -2036,7 +2036,7 @@
         </is>
       </c>
       <c r="B168">
-        <v>162987.77</v>
+        <v>165487.74</v>
       </c>
     </row>
     <row r="169">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="B169">
-        <v>238430.44</v>
+        <v>249190.33</v>
       </c>
     </row>
     <row r="170">
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="B170">
-        <v>1822344.5</v>
+        <v>1842507.4</v>
       </c>
     </row>
     <row r="171">
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="B171">
-        <v>138948.79</v>
+        <v>137532.17</v>
       </c>
     </row>
     <row r="172">
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="B172">
-        <v>4777.11</v>
+        <v>4788.34</v>
       </c>
     </row>
     <row r="173">
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="B173">
-        <v>49417.16</v>
+        <v>49519.36</v>
       </c>
     </row>
     <row r="174">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="B174">
-        <v>414200.71</v>
+        <v>423767.66</v>
       </c>
     </row>
     <row r="175">
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="B175">
-        <v>33451.01</v>
+        <v>33654.56</v>
       </c>
     </row>
     <row r="176">
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="B176">
-        <v>6649.33</v>
+        <v>6854.19</v>
       </c>
     </row>
     <row r="177">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="B177">
-        <v>111521.7</v>
+        <v>112115.57</v>
       </c>
     </row>
     <row r="178">
@@ -2136,7 +2136,7 @@
         </is>
       </c>
       <c r="B178">
-        <v>79646.39999999999</v>
+        <v>79546.10000000001</v>
       </c>
     </row>
     <row r="179">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="B179">
-        <v>13293.43</v>
+        <v>12965</v>
       </c>
     </row>
     <row r="180">
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="B180">
-        <v>33737.95</v>
+        <v>34200.59</v>
       </c>
     </row>
     <row r="181">
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="B181">
-        <v>91936.55</v>
+        <v>92259.28</v>
       </c>
     </row>
     <row r="182">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="B182">
-        <v>35684.08</v>
+        <v>35684.66</v>
       </c>
     </row>
     <row r="183">
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="B183">
-        <v>25930.96</v>
+        <v>26608.28</v>
       </c>
     </row>
     <row r="184">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="B184">
-        <v>21644.92</v>
+        <v>21358.42</v>
       </c>
     </row>
     <row r="185">
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="B185">
-        <v>167762.15</v>
+        <v>170043.36</v>
       </c>
     </row>
     <row r="186">
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="B186">
-        <v>40483.67</v>
+        <v>40506.74</v>
       </c>
     </row>
     <row r="187">
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="B187">
-        <v>167932.56</v>
+        <v>169102.72</v>
       </c>
     </row>
     <row r="188">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B188">
-        <v>118485.57</v>
+        <v>119445.29</v>
       </c>
     </row>
     <row r="189">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="B189">
-        <v>23147.61</v>
+        <v>23028.31</v>
       </c>
     </row>
     <row r="190">
@@ -2256,7 +2256,7 @@
         </is>
       </c>
       <c r="B190">
-        <v>43299.74</v>
+        <v>43167.03</v>
       </c>
     </row>
     <row r="191">
@@ -2266,7 +2266,7 @@
         </is>
       </c>
       <c r="B191">
-        <v>198511.85</v>
+        <v>204569.96</v>
       </c>
     </row>
     <row r="192">
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="B192">
-        <v>56478.11</v>
+        <v>56679.66</v>
       </c>
     </row>
     <row r="193">
@@ -2286,7 +2286,7 @@
         </is>
       </c>
       <c r="B193">
-        <v>24362.11</v>
+        <v>24449.4</v>
       </c>
     </row>
     <row r="194">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="B194">
-        <v>32116</v>
+        <v>32230.26</v>
       </c>
     </row>
     <row r="195">
@@ -2326,7 +2326,7 @@
         </is>
       </c>
       <c r="B197">
-        <v>33348.93</v>
+        <v>32285.3</v>
       </c>
     </row>
     <row r="198">
@@ -2336,7 +2336,7 @@
         </is>
       </c>
       <c r="B198">
-        <v>33305.56</v>
+        <v>32241.69</v>
       </c>
     </row>
     <row r="199">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="B199">
-        <v>15327.27</v>
+        <v>16670.3</v>
       </c>
     </row>
     <row r="200">
@@ -2356,7 +2356,7 @@
         </is>
       </c>
       <c r="B200">
-        <v>15304.48</v>
+        <v>16647.69</v>
       </c>
     </row>
     <row r="201">
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="B201">
-        <v>870587</v>
+        <v>891550</v>
       </c>
     </row>
     <row r="202">
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="B202">
-        <v>26203.14</v>
+        <v>27383.97</v>
       </c>
     </row>
     <row r="203">
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="B203">
-        <v>22932.1</v>
+        <v>24318.79</v>
       </c>
     </row>
     <row r="204">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B204">
-        <v>16896.98</v>
+        <v>17813.43</v>
       </c>
     </row>
     <row r="205">
@@ -2406,7 +2406,7 @@
         </is>
       </c>
       <c r="B205">
-        <v>49529.79</v>
+        <v>51137.47</v>
       </c>
     </row>
     <row r="206">
@@ -2416,7 +2416,7 @@
         </is>
       </c>
       <c r="B206">
-        <v>88747.39</v>
+        <v>91020.91</v>
       </c>
     </row>
     <row r="207">
@@ -2426,7 +2426,7 @@
         </is>
       </c>
       <c r="B207">
-        <v>15897.69</v>
+        <v>16311.24</v>
       </c>
     </row>
     <row r="208">
@@ -2435,9 +2435,6 @@
           <t>NL31</t>
         </is>
       </c>
-      <c r="B208">
-        <v>83277.67</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -2446,7 +2443,7 @@
         </is>
       </c>
       <c r="B209">
-        <v>185202.51</v>
+        <v>188772.39</v>
       </c>
     </row>
     <row r="210">
@@ -2455,9 +2452,6 @@
           <t>NL33</t>
         </is>
       </c>
-      <c r="B210">
-        <v>181185.09</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -2466,7 +2460,7 @@
         </is>
       </c>
       <c r="B211">
-        <v>15223.25</v>
+        <v>15455.43</v>
       </c>
     </row>
     <row r="212">
@@ -2476,7 +2470,7 @@
         </is>
       </c>
       <c r="B212">
-        <v>132852.43</v>
+        <v>137059.5</v>
       </c>
     </row>
     <row r="213">
@@ -2486,7 +2480,7 @@
         </is>
       </c>
       <c r="B213">
-        <v>49888.37</v>
+        <v>49387.54</v>
       </c>
     </row>
     <row r="214">
@@ -2496,7 +2490,7 @@
         </is>
       </c>
       <c r="B214">
-        <v>576382.63</v>
+        <v>583001.4</v>
       </c>
     </row>
     <row r="215">
@@ -2506,7 +2500,7 @@
         </is>
       </c>
       <c r="B215">
-        <v>47281.04</v>
+        <v>47766.76</v>
       </c>
     </row>
     <row r="216">
@@ -2516,7 +2510,7 @@
         </is>
       </c>
       <c r="B216">
-        <v>68890.59</v>
+        <v>69380.23</v>
       </c>
     </row>
     <row r="217">
@@ -2526,7 +2520,7 @@
         </is>
       </c>
       <c r="B217">
-        <v>56943.46</v>
+        <v>57535.59</v>
       </c>
     </row>
     <row r="218">
@@ -2536,7 +2530,7 @@
         </is>
       </c>
       <c r="B218">
-        <v>21145.11</v>
+        <v>21325.04</v>
       </c>
     </row>
     <row r="219">
@@ -2546,7 +2540,7 @@
         </is>
       </c>
       <c r="B219">
-        <v>12288.98</v>
+        <v>12474.53</v>
       </c>
     </row>
     <row r="220">
@@ -2556,7 +2550,7 @@
         </is>
       </c>
       <c r="B220">
-        <v>48775.56</v>
+        <v>49334.06</v>
       </c>
     </row>
     <row r="221">
@@ -2566,7 +2560,7 @@
         </is>
       </c>
       <c r="B221">
-        <v>11827.31</v>
+        <v>11946.65</v>
       </c>
     </row>
     <row r="222">
@@ -2576,7 +2570,7 @@
         </is>
       </c>
       <c r="B222">
-        <v>25170.79</v>
+        <v>25403.57</v>
       </c>
     </row>
     <row r="223">
@@ -2586,7 +2580,7 @@
         </is>
       </c>
       <c r="B223">
-        <v>14841.53</v>
+        <v>14993.55</v>
       </c>
     </row>
     <row r="224">
@@ -2596,7 +2590,7 @@
         </is>
       </c>
       <c r="B224">
-        <v>34562.6</v>
+        <v>34727.43</v>
       </c>
     </row>
     <row r="225">
@@ -2606,7 +2600,7 @@
         </is>
       </c>
       <c r="B225">
-        <v>34974.18</v>
+        <v>35596</v>
       </c>
     </row>
     <row r="226">
@@ -2616,7 +2610,7 @@
         </is>
       </c>
       <c r="B226">
-        <v>13226.43</v>
+        <v>13562.94</v>
       </c>
     </row>
     <row r="227">
@@ -2626,7 +2620,7 @@
         </is>
       </c>
       <c r="B227">
-        <v>21362.11</v>
+        <v>21823.01</v>
       </c>
     </row>
     <row r="228">
@@ -2636,7 +2630,7 @@
         </is>
       </c>
       <c r="B228">
-        <v>22232.84</v>
+        <v>22482.79</v>
       </c>
     </row>
     <row r="229">
@@ -2646,7 +2640,7 @@
         </is>
       </c>
       <c r="B229">
-        <v>12785.65</v>
+        <v>13130.04</v>
       </c>
     </row>
     <row r="230">
@@ -2656,7 +2650,7 @@
         </is>
       </c>
       <c r="B230">
-        <v>99747.97</v>
+        <v>100193.45</v>
       </c>
     </row>
     <row r="231">
@@ -2666,7 +2660,7 @@
         </is>
       </c>
       <c r="B231">
-        <v>30325.98</v>
+        <v>31325.51</v>
       </c>
     </row>
     <row r="232">
@@ -2676,7 +2670,7 @@
         </is>
       </c>
       <c r="B232">
-        <v>216053.21</v>
+        <v>216493.75</v>
       </c>
     </row>
     <row r="233">
@@ -2686,7 +2680,7 @@
         </is>
       </c>
       <c r="B233">
-        <v>65109.53</v>
+        <v>65622.12</v>
       </c>
     </row>
     <row r="234">
@@ -2696,7 +2690,7 @@
         </is>
       </c>
       <c r="B234">
-        <v>9584.08</v>
+        <v>9419.309999999999</v>
       </c>
     </row>
     <row r="235">
@@ -2705,9 +2699,6 @@
           <t>PT16</t>
         </is>
       </c>
-      <c r="B235">
-        <v>41287.27</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -2715,9 +2706,6 @@
           <t>PT17</t>
         </is>
       </c>
-      <c r="B236">
-        <v>76602.81</v>
-      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -2725,9 +2713,6 @@
           <t>PT18</t>
         </is>
       </c>
-      <c r="B237">
-        <v>13731.98</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -2736,7 +2721,7 @@
         </is>
       </c>
       <c r="B238">
-        <v>4560.55</v>
+        <v>4374.46</v>
       </c>
     </row>
     <row r="239">
@@ -2746,7 +2731,7 @@
         </is>
       </c>
       <c r="B239">
-        <v>5025.69</v>
+        <v>5073.17</v>
       </c>
     </row>
     <row r="240">
@@ -2756,7 +2741,7 @@
         </is>
       </c>
       <c r="B240">
-        <v>241611.26</v>
+        <v>242260.45</v>
       </c>
     </row>
     <row r="241">
@@ -2766,7 +2751,7 @@
         </is>
       </c>
       <c r="B241">
-        <v>29683.67</v>
+        <v>29733.72</v>
       </c>
     </row>
     <row r="242">
@@ -2776,7 +2761,7 @@
         </is>
       </c>
       <c r="B242">
-        <v>27208.14</v>
+        <v>27257.14</v>
       </c>
     </row>
     <row r="243">
@@ -2786,7 +2771,7 @@
         </is>
       </c>
       <c r="B243">
-        <v>25448.23</v>
+        <v>25482.79</v>
       </c>
     </row>
     <row r="244">
@@ -2796,7 +2781,7 @@
         </is>
       </c>
       <c r="B244">
-        <v>24116.61</v>
+        <v>24147.52</v>
       </c>
     </row>
     <row r="245">
@@ -2806,7 +2791,7 @@
         </is>
       </c>
       <c r="B245">
-        <v>27395.31</v>
+        <v>27419.36</v>
       </c>
     </row>
     <row r="246">
@@ -2816,7 +2801,7 @@
         </is>
       </c>
       <c r="B246">
-        <v>67622.64999999999</v>
+        <v>67994.49000000001</v>
       </c>
     </row>
     <row r="247">
@@ -2826,7 +2811,7 @@
         </is>
       </c>
       <c r="B247">
-        <v>18081.95</v>
+        <v>18124.54</v>
       </c>
     </row>
     <row r="248">
@@ -2836,7 +2821,7 @@
         </is>
       </c>
       <c r="B248">
-        <v>21913.57</v>
+        <v>21959.76</v>
       </c>
     </row>
     <row r="249">
@@ -2846,7 +2831,7 @@
         </is>
       </c>
       <c r="B249">
-        <v>540734.05</v>
+        <v>538597.15</v>
       </c>
     </row>
     <row r="250">
@@ -2856,7 +2841,7 @@
         </is>
       </c>
       <c r="B250">
-        <v>171268.72</v>
+        <v>169784.45</v>
       </c>
     </row>
     <row r="251">
@@ -2866,7 +2851,7 @@
         </is>
       </c>
       <c r="B251">
-        <v>77127.02</v>
+        <v>77151.50999999999</v>
       </c>
     </row>
     <row r="252">
@@ -2876,7 +2861,7 @@
         </is>
       </c>
       <c r="B252">
-        <v>39378.9</v>
+        <v>39267.39</v>
       </c>
     </row>
     <row r="253">
@@ -2886,7 +2871,7 @@
         </is>
       </c>
       <c r="B253">
-        <v>69191.83</v>
+        <v>68807.87</v>
       </c>
     </row>
     <row r="254">
@@ -2896,7 +2881,7 @@
         </is>
       </c>
       <c r="B254">
-        <v>102255.78</v>
+        <v>102439.81</v>
       </c>
     </row>
     <row r="255">
@@ -2906,7 +2891,7 @@
         </is>
       </c>
       <c r="B255">
-        <v>35774.45</v>
+        <v>35594.76</v>
       </c>
     </row>
     <row r="256">
@@ -2916,7 +2901,7 @@
         </is>
       </c>
       <c r="B256">
-        <v>16858.11</v>
+        <v>16753.16</v>
       </c>
     </row>
     <row r="257">
@@ -2926,7 +2911,7 @@
         </is>
       </c>
       <c r="B257">
-        <v>28782.59</v>
+        <v>28701.35</v>
       </c>
     </row>
     <row r="258">
@@ -2936,7 +2921,7 @@
         </is>
       </c>
       <c r="B258">
-        <v>52278.76</v>
+        <v>52022.65</v>
       </c>
     </row>
     <row r="259">
@@ -2946,7 +2931,7 @@
         </is>
       </c>
       <c r="B259">
-        <v>22446.16</v>
+        <v>22085.48</v>
       </c>
     </row>
     <row r="260">
@@ -2956,7 +2941,7 @@
         </is>
       </c>
       <c r="B260">
-        <v>29832.61</v>
+        <v>29937.17</v>
       </c>
     </row>
     <row r="261">
@@ -2966,7 +2951,7 @@
         </is>
       </c>
       <c r="B261">
-        <v>100255.72</v>
+        <v>101960.01</v>
       </c>
     </row>
     <row r="262">
@@ -2976,7 +2961,7 @@
         </is>
       </c>
       <c r="B262">
-        <v>28104.14</v>
+        <v>28874.38</v>
       </c>
     </row>
     <row r="263">
@@ -2986,7 +2971,7 @@
         </is>
       </c>
       <c r="B263">
-        <v>30700.65</v>
+        <v>30802</v>
       </c>
     </row>
     <row r="264">
@@ -2996,7 +2981,7 @@
         </is>
       </c>
       <c r="B264">
-        <v>20102.33</v>
+        <v>20551.18</v>
       </c>
     </row>
     <row r="265">
@@ -3006,7 +2991,7 @@
         </is>
       </c>
       <c r="B265">
-        <v>21348.61</v>
+        <v>21732.44</v>
       </c>
     </row>
   </sheetData>
